--- a/pred_ohlcv/54_21/2020-01-23 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ETZ ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>1012825.543568551</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>704773.2181685508</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>722091.3615685508</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>837264.5144685508</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>867018.9194685508</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>857659.0807685509</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>857759.0807685509</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-177962.9090226078</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-623455.6542226078</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-900523.7554226078</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-758675.1027226078</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-914622.0529430876</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-851373.4377430878</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-141841.7250046262</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-203988.2551046262</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-112523.0072421262</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-130225.1230421262</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2347132.629692661</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2299751.87709266</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2590563.28879266</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2439325.994892661</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2458981.744892661</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>2625786.50099266</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>2543869.09349266</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>2447672.42549266</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>2380178.61639266</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ETZ ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>1012825.543568551</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>704773.2181685508</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>722091.3615685508</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>837264.5144685508</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>866968.9194685508</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>867018.9194685508</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>857659.0807685509</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>857759.0807685509</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-178136.9090226078</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-177962.9090226078</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-623455.6542226078</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-900523.7554226078</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-791394.8583226078</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-758675.1027226078</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-758625.1027226078</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-768007.9810430877</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-781802.8784430877</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-781759.8784430877</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-725006.8284430876</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-725006.8284430876</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-844200.8284430876</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-844107.8284430876</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-844365.0529430876</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-879522.0529430876</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-914622.0529430876</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-995828.8334430876</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-998678.9456430876</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-998635.9456430876</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-946456.6370430876</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-956104.6657430877</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-955605.9879430877</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-851373.4377430878</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-736407.6562430877</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-598106.0843430877</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-545239.7479430877</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-547099.7479430877</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-501247.5846430877</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-459833.6154430877</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-141841.7250046262</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-203988.2551046262</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-112523.0072421262</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-130225.1230421262</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3485545.804992661</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3137207.623892661</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2962443.149792661</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2603158.410292661</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2347132.629692661</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2362416.38859266</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
